--- a/results/limits/depth_vel_Q_limits_LA11_LA20.xlsx
+++ b/results/limits/depth_vel_Q_limits_LA11_LA20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katieirving/Documents/git/flow_eco_mech/results/limits/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18950884-9CDD-E640-BAFF-1D64442D1F03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC5075B-71CA-0940-9DDE-2A55A2AB67D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-29560" yWindow="2000" windowWidth="27640" windowHeight="16940" xr2:uid="{D2EE5BED-93D1-7D4B-B80A-5EE820D95241}"/>
   </bookViews>
